--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5A27E-2EE7-4820-855C-41F072F3C849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FCC25E-7312-468A-859D-D020C4AD607C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Версия программы</t>
   </si>
   <si>
-    <t>Последовательная, базовая (не блочная)</t>
-  </si>
-  <si>
     <t>В этом файле будет находиться статистика версий программы, а именно время выполнения теста на оптимизацию и используемая им память.</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>Главное - не забывать замеры вести и заранее нарисовать красивую табличку со шрифтом по ГОСТу, остальное приложится</t>
+  </si>
+  <si>
+    <t>Последовательная, базовая (не блочная, не википедия)</t>
+  </si>
+  <si>
+    <t>массив n^2, в моменте подскакивает до 2n^2 (при возврате результата)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,9 +131,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,13 +234,73 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9054</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113168</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77301E52-0432-4D04-B3B3-00D890F3A041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8012317" y="2829208"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1265FDE-9D09-4029-996C-3256184AA250}" name="Таблица5" displayName="Таблица5" ref="A5:C13" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1265FDE-9D09-4029-996C-3256184AA250}" name="Таблица5" displayName="Таблица5" ref="A5:C13" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A5:C13" xr:uid="{77FA603F-CE15-4599-830A-D8A9A6CB534A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C3335F3C-9DCA-44E5-8663-8F22E015C373}" name="Версия программы" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2AF815E7-8D65-4C5A-808F-C3D0C1E21499}" name="Время выполнения " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FEA5D5C0-CF56-4733-8054-98854E8A5700}" name="Использованная память" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C3335F3C-9DCA-44E5-8663-8F22E015C373}" name="Версия программы" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2AF815E7-8D65-4C5A-808F-C3D0C1E21499}" name="Время выполнения " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FEA5D5C0-CF56-4733-8054-98854E8A5700}" name="Использованная память" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,24 +572,24 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -540,12 +608,12 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -564,67 +632,77 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="F5:J9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FCC25E-7312-468A-859D-D020C4AD607C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3F591C-CFA6-40B9-9A75-DEE0E48DD9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Последовательная, базовая (не блочная, не википедия)</t>
   </si>
   <si>
-    <t>массив n^2, в моменте подскакивает до 2n^2 (при возврате результата)</t>
+    <t>Матрица n^2</t>
   </si>
 </sst>
 </file>
@@ -123,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,7 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -163,6 +162,9 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -295,12 +297,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1265FDE-9D09-4029-996C-3256184AA250}" name="Таблица5" displayName="Таблица5" ref="A5:C13" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A5:C13" xr:uid="{77FA603F-CE15-4599-830A-D8A9A6CB534A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1265FDE-9D09-4029-996C-3256184AA250}" name="Таблица5" displayName="Таблица5" ref="A5:C13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="4">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C3335F3C-9DCA-44E5-8663-8F22E015C373}" name="Версия программы" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2AF815E7-8D65-4C5A-808F-C3D0C1E21499}" name="Время выполнения " dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FEA5D5C0-CF56-4733-8054-98854E8A5700}" name="Использованная память" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C3335F3C-9DCA-44E5-8663-8F22E015C373}" name="Версия программы" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2AF815E7-8D65-4C5A-808F-C3D0C1E21499}" name="Время выполнения " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FEA5D5C0-CF56-4733-8054-98854E8A5700}" name="Использованная память" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,90 +573,90 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -664,32 +665,32 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3F591C-CFA6-40B9-9A75-DEE0E48DD9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41F5D4-3C66-4CD6-B074-00121480A5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,40 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
   <si>
-    <t>Версия программы</t>
-  </si>
-  <si>
     <t>В этом файле будет находиться статистика версий программы, а именно время выполнения теста на оптимизацию и используемая им память.</t>
   </si>
   <si>
-    <t xml:space="preserve">Время выполнения </t>
-  </si>
-  <si>
     <t xml:space="preserve">Для замеров времени предполагается использовать CRONO, "замеры" памяти грубо прикидываются автором. </t>
   </si>
   <si>
-    <t>Использованная память</t>
-  </si>
-  <si>
     <t>Главное - не забывать замеры вести и заранее нарисовать красивую табличку со шрифтом по ГОСТу, остальное приложится</t>
   </si>
   <si>
-    <t>Последовательная, базовая (не блочная, не википедия)</t>
-  </si>
-  <si>
-    <t>Матрица n^2</t>
+    <t>&gt;30min, остановил</t>
+  </si>
+  <si>
+    <t>Первая версия (последовательная, не блочная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использованная память: </t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>Величина n (длина строки/столбца):</t>
+  </si>
+  <si>
+    <t>Время инициализации матрицы (случ. значения), мс:</t>
+  </si>
+  <si>
+    <t>Время вычисления LU разложения, мс:</t>
+  </si>
+  <si>
+    <t>Общее время выполнения теста, мс:</t>
+  </si>
+  <si>
+    <t>неизвестно</t>
+  </si>
+  <si>
+    <t>~50</t>
+  </si>
+  <si>
+    <t>~990</t>
+  </si>
+  <si>
+    <t>~1050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,14 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="GOST Common"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="GOST Common"/>
@@ -96,6 +109,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -111,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,111 +146,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -294,17 +266,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F1265FDE-9D09-4029-996C-3256184AA250}" name="Таблица5" displayName="Таблица5" ref="A5:C13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="4">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C3335F3C-9DCA-44E5-8663-8F22E015C373}" name="Версия программы" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2AF815E7-8D65-4C5A-808F-C3D0C1E21499}" name="Время выполнения " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FEA5D5C0-CF56-4733-8054-98854E8A5700}" name="Использованная память" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,27 +531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -609,12 +569,12 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -633,77 +593,156 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>434</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3653</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>38438</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>38874</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="F5:J9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41F5D4-3C66-4CD6-B074-00121480A5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36D11F-D750-45C1-9377-9E50A8BF8977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
@@ -73,13 +73,167 @@
   </si>
   <si>
     <t>~1050</t>
+  </si>
+  <si>
+    <r>
+      <t>Компилятор:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Intel oneApi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, конфигурация: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Debug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Компилятор:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Intel oneApi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, конфигурация: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Release</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Компилятор: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Visual Studio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, конфигурация: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Debug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Компилятор: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Visual Studio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, конфигурация: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="GOST Common"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Release</t>
+    </r>
+  </si>
+  <si>
+    <t>ожидаемо худшая</t>
+  </si>
+  <si>
+    <t>ожидаемо лучшая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +277,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,36 +336,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,7 +763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
@@ -593,153 +825,302 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>1000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>3000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>10000</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="12">
         <v>434</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="12">
         <v>3653</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="12">
         <v>38438</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="12">
         <v>38874</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12">
+        <v>197</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1746</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11">
+        <v>753</v>
+      </c>
+      <c r="C14" s="12">
+        <v>35931</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11">
+        <v>776</v>
+      </c>
+      <c r="C15" s="12">
+        <v>36130</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12">
+        <v>302</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2243</v>
+      </c>
+      <c r="C18" s="12">
+        <v>64209</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2278</v>
+      </c>
+      <c r="C19" s="12">
+        <v>64514</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <v>232</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11">
+        <v>904</v>
+      </c>
+      <c r="C22" s="12">
+        <v>39196</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="11">
+        <v>926</v>
+      </c>
+      <c r="C23" s="12">
+        <v>39431</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="F5:J9"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36D11F-D750-45C1-9377-9E50A8BF8977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E154B-50E0-4506-AD90-BD0289C9ABA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Главное - не забывать замеры вести и заранее нарисовать красивую табличку со шрифтом по ГОСТу, остальное приложится</t>
   </si>
   <si>
-    <t>&gt;30min, остановил</t>
-  </si>
-  <si>
     <t>Первая версия (последовательная, не блочная)</t>
   </si>
   <si>
@@ -64,52 +61,6 @@
   </si>
   <si>
     <t>неизвестно</t>
-  </si>
-  <si>
-    <t>~50</t>
-  </si>
-  <si>
-    <t>~990</t>
-  </si>
-  <si>
-    <t>~1050</t>
-  </si>
-  <si>
-    <r>
-      <t>Компилятор:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Intel oneApi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, конфигурация: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Debug</t>
-    </r>
   </si>
   <si>
     <r>
@@ -182,51 +133,8 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Debug</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Компилятор: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Visual Studio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, конфигурация: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="GOST Common"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>Release</t>
     </r>
-  </si>
-  <si>
-    <t>ожидаемо худшая</t>
-  </si>
-  <si>
-    <t>ожидаемо лучшая</t>
   </si>
 </sst>
 </file>
@@ -387,24 +295,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,15 +329,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
@@ -843,284 +751,176 @@
       <c r="N3" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="7" t="s">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
         <v>1000</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>3000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>10000</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12">
-        <v>434</v>
-      </c>
-      <c r="D9" s="12">
-        <v>3653</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
+        <v>197</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1746</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12">
-        <v>38438</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>753</v>
+      </c>
+      <c r="C10" s="10">
+        <v>35931</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12">
-        <v>38874</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>776</v>
+      </c>
+      <c r="C11" s="10">
+        <v>36130</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9">
         <v>20</v>
       </c>
-      <c r="C13" s="12">
-        <v>197</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1746</v>
+      <c r="C13" s="10">
+        <v>232</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1810</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11">
-        <v>753</v>
-      </c>
-      <c r="C14" s="12">
-        <v>35931</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="9">
+        <v>904</v>
+      </c>
+      <c r="C14" s="10">
+        <v>39196</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9">
+        <v>926</v>
+      </c>
+      <c r="C15" s="10">
+        <v>39431</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="11">
-        <v>776</v>
-      </c>
-      <c r="C15" s="12">
-        <v>36130</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11">
-        <v>32</v>
-      </c>
-      <c r="C17" s="12">
-        <v>302</v>
-      </c>
-      <c r="D17" s="12">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2243</v>
-      </c>
-      <c r="C18" s="12">
-        <v>64209</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2278</v>
-      </c>
-      <c r="C19" s="12">
-        <v>64514</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="11">
-        <v>20</v>
-      </c>
-      <c r="C21" s="12">
-        <v>232</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="11">
-        <v>904</v>
-      </c>
-      <c r="C22" s="12">
-        <v>39196</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="11">
-        <v>926</v>
-      </c>
-      <c r="C23" s="12">
-        <v>39431</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="F5:J9"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E154B-50E0-4506-AD90-BD0289C9ABA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174180E2-7D7F-4BDF-B37C-62C6092D30F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
@@ -135,6 +135,30 @@
       </rPr>
       <t>Release</t>
     </r>
+  </si>
+  <si>
+    <t>35931 (35,9 сек)</t>
+  </si>
+  <si>
+    <t>36130 (36,1 сек)</t>
+  </si>
+  <si>
+    <t>816373 (816,4 сек)</t>
+  </si>
+  <si>
+    <t>817418 (817,4 сек)</t>
+  </si>
+  <si>
+    <t>3731587 (3731,6 сек)</t>
+  </si>
+  <si>
+    <t>3733384 (3733,4 сек)</t>
+  </si>
+  <si>
+    <t>39196 (39,2 сек)</t>
+  </si>
+  <si>
+    <t>39431 (39,4 сек)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,48 +268,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -307,28 +294,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,14 +649,14 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -750,35 +725,37 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -791,26 +768,30 @@
         <v>3000</v>
       </c>
       <c r="D7" s="8">
+        <v>7000</v>
+      </c>
+      <c r="E7" s="8">
         <v>10000</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -823,13 +804,16 @@
         <v>197</v>
       </c>
       <c r="D9" s="10">
+        <v>1042</v>
+      </c>
+      <c r="E9" s="10">
         <v>1746</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -838,10 +822,15 @@
       <c r="B10" s="9">
         <v>753</v>
       </c>
-      <c r="C10" s="10">
-        <v>35931</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -850,20 +839,26 @@
       <c r="B11" s="9">
         <v>776</v>
       </c>
-      <c r="C11" s="10">
-        <v>36130</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -877,8 +872,9 @@
       <c r="C13" s="10">
         <v>232</v>
       </c>
-      <c r="D13" s="10">
-        <v>1810</v>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>1811</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -890,10 +886,11 @@
       <c r="B14" s="9">
         <v>904</v>
       </c>
-      <c r="C14" s="10">
-        <v>39196</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="5"/>
@@ -907,20 +904,21 @@
       <c r="B15" s="9">
         <v>926</v>
       </c>
-      <c r="C15" s="10">
-        <v>39431</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F5:J9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G5:K9"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174180E2-7D7F-4BDF-B37C-62C6092D30F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CADB9B-DAD7-40A8-AD3C-51ECBCF63D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Главное - не забывать замеры вести и заранее нарисовать красивую табличку со шрифтом по ГОСТу, остальное приложится</t>
-  </si>
-  <si>
-    <t>Первая версия (последовательная, не блочная)</t>
   </si>
   <si>
     <t xml:space="preserve">Использованная память: </t>
@@ -160,12 +157,102 @@
   <si>
     <t>39431 (39,4 сек)</t>
   </si>
+  <si>
+    <t>На момент создания этой версии, тесты не проводились</t>
+  </si>
+  <si>
+    <t>Версия 1.0 (последовательная, не блочная)</t>
+  </si>
+  <si>
+    <t>~10</t>
+  </si>
+  <si>
+    <t>~292</t>
+  </si>
+  <si>
+    <t>~303</t>
+  </si>
+  <si>
+    <t>~86</t>
+  </si>
+  <si>
+    <t>~9241 (9,2 сек)</t>
+  </si>
+  <si>
+    <t>~9328 (9,3 сек)</t>
+  </si>
+  <si>
+    <t>~701</t>
+  </si>
+  <si>
+    <t>~119878 (119,9 сек)</t>
+  </si>
+  <si>
+    <t>~120579 (120,6 сек)</t>
+  </si>
+  <si>
+    <t>Версия 1.1 (та же 1.0, но с улучшением обхода памяти и генератора)</t>
+  </si>
+  <si>
+    <t>~1320</t>
+  </si>
+  <si>
+    <t>~319947 (319,9 сек)</t>
+  </si>
+  <si>
+    <t>~321267 (321,3 сек)</t>
+  </si>
+  <si>
+    <t>~13</t>
+  </si>
+  <si>
+    <t>~317</t>
+  </si>
+  <si>
+    <t>~330</t>
+  </si>
+  <si>
+    <t>~96</t>
+  </si>
+  <si>
+    <t>а почему</t>
+  </si>
+  <si>
+    <t>~543</t>
+  </si>
+  <si>
+    <t>~110071 (110,1 сек)</t>
+  </si>
+  <si>
+    <t>~110614 (110,6 сек)</t>
+  </si>
+  <si>
+    <t>~8058 (8,1 сек)</t>
+  </si>
+  <si>
+    <t>~8155 (8,2 сек)</t>
+  </si>
+  <si>
+    <t>~1689</t>
+  </si>
+  <si>
+    <t>А ПОЧЕМУ</t>
+  </si>
+  <si>
+    <t>~355642 (355,6 сек)</t>
+  </si>
+  <si>
+    <t>~357332 (357,3 сек)</t>
+  </si>
+  <si>
+    <t>а тут логично…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +311,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -245,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,11 +361,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -294,17 +424,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,6 +489,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8012317" y="2829208"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9054</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113168</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60DEF0B-7AC5-4BE9-B97A-367940A351A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9596674" y="2829208"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -646,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
@@ -726,40 +923,40 @@
       <c r="N3" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>1000</v>
@@ -773,29 +970,29 @@
       <c r="E7" s="8">
         <v>10000</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
         <v>20</v>
@@ -809,51 +1006,51 @@
       <c r="E9" s="10">
         <v>1746</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9">
         <v>753</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9">
         <v>776</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -864,7 +1061,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9">
         <v>20</v>
@@ -872,7 +1069,9 @@
       <c r="C13" s="10">
         <v>232</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="10">
         <v>1811</v>
       </c>
@@ -881,17 +1080,17 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="9">
         <v>904</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -899,27 +1098,201 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="9">
         <v>926</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="G5:K9"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\source\repos\practice\SECOND_COURSE\FOR_ITLAB\ITLAB_LU_decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CADB9B-DAD7-40A8-AD3C-51ECBCF63D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8FF89-6E67-47AD-AB2F-9EB25CAEC3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Я не уверен, будет ли это использоваться в готовой презентации и так ли это надо делать, если да, так что пока считаем, что файл для личного пользования.</t>
   </si>
@@ -246,6 +246,72 @@
   </si>
   <si>
     <t>а тут логично…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( сек)</t>
+  </si>
+  <si>
+    <t>~1162</t>
+  </si>
+  <si>
+    <t>чет очень скромное ускорение</t>
+  </si>
+  <si>
+    <t>~673</t>
+  </si>
+  <si>
+    <t>~318250 (318,3 сек)</t>
+  </si>
+  <si>
+    <t>~319412 (319,4 сек)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~106711 (106,7 сек)</t>
+  </si>
+  <si>
+    <t>~107385 (107,4 сек)</t>
+  </si>
+  <si>
+    <t>~130</t>
+  </si>
+  <si>
+    <t>~8692 (8,7 сек)</t>
+  </si>
+  <si>
+    <t>~8822 (8,8 сек)</t>
+  </si>
+  <si>
+    <t>~16</t>
+  </si>
+  <si>
+    <t>~106</t>
+  </si>
+  <si>
+    <t>~122</t>
+  </si>
+  <si>
+    <t>~1007</t>
+  </si>
+  <si>
+    <t>~306040 (306 сек)</t>
+  </si>
+  <si>
+    <t>~307048 (307 сек)</t>
+  </si>
+  <si>
+    <t>А ПОЧЕМУ ТАК</t>
+  </si>
+  <si>
+    <t>~522</t>
+  </si>
+  <si>
+    <t>~106596 (106,6 сек)</t>
+  </si>
+  <si>
+    <t>~107118 (107,1 сек)</t>
+  </si>
+  <si>
+    <t>Версия 2.0 (распараллеленная версия 1.1)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -427,8 +493,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,8 +505,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -544,6 +613,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9596674" y="2829208"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9054</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113168</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C2101E-3BC3-486A-87D7-AB0DA6ED7DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9596674" y="5771584"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -843,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.25"/>
@@ -923,36 +1047,36 @@
       <c r="N3" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="12" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -970,25 +1094,25 @@
       <c r="E7" s="8">
         <v>10000</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1006,11 +1130,11 @@
       <c r="E9" s="10">
         <v>1746</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1049,13 +1173,13 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -1069,7 +1193,7 @@
       <c r="C13" s="10">
         <v>232</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="10">
@@ -1088,7 +1212,7 @@
       <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1106,30 +1230,30 @@
       <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1149,13 +1273,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1209,13 +1333,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1279,18 +1403,179 @@
         <v>50</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="8">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="G5:K9"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G5:K9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
